--- a/medicine/Psychotrope/Gubernija/Gubernija.xlsx
+++ b/medicine/Psychotrope/Gubernija/Gubernija.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Gubernija est une entreprise lituanienne fondée en 1665 et faisant partie de l'OMX Vilnius, le principal indice de la bourse de Vilnius. Gubernija est un des plus vieux brasseurs au monde, produisant les marques suivantes :
 Ekstra
